--- a/biology/Origine et évolution du vivant/Hétérogamie_(biologie)/Hétérogamie_(biologie).xlsx
+++ b/biology/Origine et évolution du vivant/Hétérogamie_(biologie)/Hétérogamie_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rogamie_(biologie)</t>
+          <t>Hétérogamie_(biologie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hétérogamie est un terme qui fait référence à divers processus du vivant. En biologie, le terme d'hétérogamie, tout comme l'homogamie, n'a pas le même sens en fonction de la discipline considérée. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rogamie_(biologie)</t>
+          <t>Hétérogamie_(biologie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme hétérogamie vient du grec ancien : ἕτερος (héteros, « autre »), γάμος (gámos, « union »), et du suffixe « -ie » utilisé pour désigner un état ou une condition. 
 Littéralement, cela signifie « l'union avec l'autre ».
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rogamie_(biologie)</t>
+          <t>Hétérogamie_(biologie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Zoologie et évolution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie évolutive et en zoologie, l'hétérogamie est un type de reproduction où les organismes ont des phénotypes (traits observables) différents. En ce sens, il s'oppose à l'homogamie qui fait référence au type de reproduction où les organismes ont des phénotypes similaires (c'est-à-dire qu'ils se ressemble). 
-À titre d'exemple, l'espèce Heliconius numata est une espèce hétérogame. En effet, les femelles rejettent les mâles ayant des modèles mélaniques semblables aux leurs[1]. 
+À titre d'exemple, l'espèce Heliconius numata est une espèce hétérogame. En effet, les femelles rejettent les mâles ayant des modèles mélaniques semblables aux leurs. 
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rogamie_(biologie)</t>
+          <t>Hétérogamie_(biologie)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rogamie_(biologie)</t>
+          <t>Hétérogamie_(biologie)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,7 +619,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un mode de fécondation où les deux gamètes sont différents d'un point de vue morphologique. 
 </t>
